--- a/biology/Zoologie/Crematogastrini/Crematogastrini.xlsx
+++ b/biology/Zoologie/Crematogastrini/Crematogastrini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Crematogastrini sont une tribu de fourmis myrmicines avec 64 genres et 8 genres fossiles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Crematogastrini sont une tribu de fourmis myrmicines avec 64 genres et 8 genres fossiles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Crematogastrini a été créée en 1893 par l'entomologiste suisse Auguste Forel (1848-1931)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Crematogastrini a été créée en 1893 par l'entomologiste suisse Auguste Forel (1848-1931).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthomyrmex Emery, 1893
@@ -609,7 +625,43 @@
 Vollenhovia Mayr, 1865
 Vombisidris Bolton, 1991
 Xenomyrmex Forel, 1885
-Genres fossiles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Crematogastrini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crematogastrini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 †Enneamerus Mayr, 1868
 †Eocenomyrma Dlussky &amp; Radchenko, 2006
 †Hypopomyrmex Emery, 1891
